--- a/scrapped_data/exhibitor_website_links.xlsx
+++ b/scrapped_data/exhibitor_website_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,124 +444,434 @@
           <t>Visit Website Link</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Website Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.cjlleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CJL Lesiure Vehicles Ltd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.kaktusvans.co.uk</t>
+          <t>http://www.conceptmulti-car.co.uk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CMC Reimo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.knaus-uk.co.uk</t>
+          <t>http://www.coachman.co.uk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coachman Caravan Company Ltd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/laika/laika</t>
+          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Not available</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dethleffs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+          <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.lowdhams.com</t>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Devon Conversions Ltd</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+          <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.malibu-carthago.com/en</t>
+          <t>http://www.rapido.fr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dreamer</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+          <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.ecowagon.co.uk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ecowagon</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
+          <t>https://mcshow.co.uk/elddis/elddis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.megamobil.si/en/</t>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elddis</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.moto-trek.co.uk</t>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Erwin Hymer Group Ltd</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>https://mcshow.co.uk/etrusco/etrusco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Etrusco</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://www.globe-traveller.eu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Globe Traveller</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>http://www.smcmotorhomes.co.uk</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Globecar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://www.hillsideleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hillside Leisure UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>http://www.ihmotorhomes.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IH Motorhomes Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://www.jerbacampervans.co.uk</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jerba Campervans Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Joa Camp</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://www.kaktusvans.co.uk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kaktus Adventure Vans Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://www.knaus-uk.co.uk</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Knaus Weinsberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/laika/laika</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Laika</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://www.lowdhams.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lowdhams</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://www.malibu-carthago.com/en</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Malibu GmbH KG &amp; Co</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Marquis Motorhomes &amp; Caravans</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>http://www.megamobil.si/en/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mega Mobil - Camper Vans</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>http://www.moto-trek.co.uk</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Moto-Trek Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Not available</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Murvi Motorcaravans Ltd</t>
         </is>
       </c>
     </row>

--- a/scrapped_data/exhibitor_website_links.xlsx
+++ b/scrapped_data/exhibitor_website_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,143 +453,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/tingdene-parks-ltd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.cjlleisure.co.uk</t>
+          <t>http://www.tingdene.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CJL Lesiure Vehicles Ltd</t>
+          <t>Tingdene Group</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/adria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.conceptmulti-car.co.uk</t>
+          <t>https://www.adria.co.uk/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CMC Reimo</t>
+          <t>Adria</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/auto-sleepers-group</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.coachman.co.uk</t>
+          <t>https://auto-sleepers.com/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coachman Caravan Company Ltd</t>
+          <t>Auto-Sleepers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/auto-trail-vr-ltd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>https://www.auto-trail.co.uk/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dethleffs</t>
+          <t>Auto-Trail VR Ltd</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/bailey-of-bristol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.baileyofbristol.co.uk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Devon Conversions Ltd</t>
+          <t>Bailey of Bristol</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
+          <t>https://mcshow.co.uk/exhibitor-list/brownhills-motorhomes-ltd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.rapido.fr</t>
+          <t>http://www.brownhills.co.uk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dreamer</t>
+          <t>Brownhills Motorhomes Ltd</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
+          <t>https://mcshow.co.uk/burstner/burstner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.ecowagon.co.uk</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ecowagon</t>
+          <t>Burstner</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/elddis/elddis</t>
+          <t>https://mcshow.co.uk/exhibitor-list/carthago-motorhomes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.carthago.com/en</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Elddis</t>
+          <t>Carthago Motorhomes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/chausson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,116 +599,116 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Erwin Hymer Group Ltd</t>
+          <t>Chausson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/etrusco/etrusco</t>
+          <t>https://mcshow.co.uk/exhibitor-list/coachbuilt-gb-ltd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.coachbuiltgb.co.uk</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Etrusco</t>
+          <t>Coachbuilt GB Ltd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
+          <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.globe-traveller.eu</t>
+          <t>http://www.coachman.co.uk</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Globe Traveller</t>
+          <t>Coachman Caravan Company Ltd</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
+          <t>https://mcshow.co.uk/couplands-worksop-louth/couplands-worksop-louth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.smcmotorhomes.co.uk</t>
+          <t>http://www.couplandscaravans.co.uk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Globecar</t>
+          <t>Couplands - Worksop &amp; Lincoln</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
+          <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.hillsideleisure.co.uk</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hillside Leisure UK Ltd</t>
+          <t>Dethleffs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/don-amott-caravans-motorhomes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.ihmotorhomes.com</t>
+          <t>http://www.leisurekingdom.co.uk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IH Motorhomes Ltd</t>
+          <t>Don Amott Caravans &amp; Motorhomes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
+          <t>https://mcshow.co.uk/elddis/elddis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.jerbacampervans.co.uk</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jerba Campervans Ltd</t>
+          <t>Elddis</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -718,150 +718,150 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Joa Camp</t>
+          <t>Erwin Hymer Group Ltd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
+          <t>https://mcshow.co.uk/etrusco/etrusco</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.kaktusvans.co.uk</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kaktus Adventure Vans Ltd</t>
+          <t>Etrusco</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/eura-mobil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.knaus-uk.co.uk</t>
+          <t>http://www.motorhomesltd.co.uk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Knaus Weinsberg</t>
+          <t>Eura Mobil</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/laika/laika</t>
+          <t>https://mcshow.co.uk/fleurette-florium/fleurette-florium</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.fleurette-florium.fr/en</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Laika</t>
+          <t>Fleurette - Florium</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+          <t>https://mcshow.co.uk/exhibitor-list/frankia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.lowdhams.com</t>
+          <t>Not available</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lowdhams</t>
+          <t>Frankia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+          <t>https://mcshow.co.uk/giottiline/giottiline</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.malibu-carthago.com/en</t>
+          <t>http://www.giottiline.com/en</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Malibu GmbH KG &amp; Co</t>
+          <t>Giottiline</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Not available</t>
+          <t>http://www.globe-traveller.eu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Marquis Motorhomes &amp; Caravans</t>
+          <t>Globe Traveller</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
+          <t>https://mcshow.co.uk/exhibitor-list/grantham-caravans</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.megamobil.si/en/</t>
+          <t>http://www.granthamcaravans.co.uk</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mega Mobil - Camper Vans</t>
+          <t>Grantham's</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+          <t>https://mcshow.co.uk/exhibitor-list/hobby-gb-ireland</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.moto-trek.co.uk</t>
+          <t>http://www.hobby-caravans.co.uk</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moto-Trek Ltd</t>
+          <t>Hobby GB &amp; Ireland</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
+          <t>https://mcshow.co.uk/hymer-eriba/hymer-eriba</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -871,7 +871,2591 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Murvi Motorcaravans Ltd</t>
+          <t>Hymer</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/itineo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>http://www.rapido.fr</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Itineo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Joa Camp</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>http://www.knaus-uk.co.uk</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Knaus Weinsberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/laika/laika</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Laika</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/le-voyager</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Le Voyageur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>http://www.lowdhams.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lowdhams</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://www.malibu-carthago.com/en</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Malibu GmbH KG &amp; Co</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/malibu-</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>http://www.premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Malibu shown by Premium Motorhomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Marquis Motorhomes &amp; Caravans</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mini-free-style/mini-free-style</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mini Freestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/morello</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>http://www.premiummotorhomes.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Morelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhomes-caravans-ltd/motorhomes-caravans-ltd</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>http://www.motorhomesltd.co.uk</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Motorhomes &amp; Caravans Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>http://www.moto-trek.co.uk</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Moto-Trek Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/panama/panama</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pilote</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Pilote</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/preston-caravans-motorhomes-ltd</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>http://www.prestoncm.co.uk</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Preston Caravans &amp; Motorhomes Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/rapido</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>http://www.rapido.fr</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rapido</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/richard-baldwin-motorhomes-llp</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>http://www.rbm.co.uk</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Richard Baldwin Motorhomes LLP</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/rimor</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rimor</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/rollerteam</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rollerteam</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/spinney-motorhomes-ltd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Spinney Motorhomes Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/swift-group-ltd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>http://www.swiftgroup.co.uk</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Swift Group Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wandahome-south-cave</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>http://www.wandahome.online</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wandahome South Cave</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/alde-international-uk</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>http://www.alde.co.uk</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alde International UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/e-p-hydraulics-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://al-ko.com/en/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ALKO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/al-ko-kober-ltd</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>http://www.ep-hydraulics.co.uk</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AL-KO Kober Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/amplo/amplo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>http://www.towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Amplo</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bartolacci-design/bartolacci-design</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>http://www.bartolaccidesign.it</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bartolacci Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bilstein/bilstein</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>http://www.bilstein.com</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bilstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/e-t-riddiough/e-t-riddiough</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>E T Riddiough</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exglo-uk/exglo-uk</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Exglo UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/grove-products-ltd</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Grove Products Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/leisure-vehicle-services-ltd</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>http://www.leisurevehiclecervices.com</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Leisure Vehicle Services Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/powrtouch-caravan-movers</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>http://www.trumauk.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Powrtouch Caravan Movers</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/propex-heating-and-leisure-ltd</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://www.propexheatsource.co.uk</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Propex Heating and Leisure Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/reimo-gmbh</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>http://www.reimo.com</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Reimo GmbH</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/scan-terieur-limited</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>http://www.scan-terieur.com</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Scan-Terieur Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/sky-up-s-r-l/sky-up-s-r-l</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>http://www.sky-up.it</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sky Up S.r.l</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/towtal</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>http://www.towtal.co.uk</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TOWtal</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/truma-limited</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>http://www.trumauk.com</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Truma Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vb-airsuspension-uk-ltd/vb-airsuspension-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>http://www.vbairsuspension.com/en</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VB - Airsuspension UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/verendus-systems/verendus-systems</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>http://www.verendus.co.uk</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Verendus Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wallas-uk</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>http://www.campervanheating.co.uk</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wallas UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/webasto</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>http://www.webasto.co.uk</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Webasto</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/whale-mastervolt/whale-mastervolt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>http://www.whale.navico.com</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Whale &amp; Mastervolt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd/</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.camperlands.co.uk/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Camperlands Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/opus-camper/</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>http://www.opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Opus Camper</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd/</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>http://www.pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pennine Outdoor Leisure Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd/</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Venter Trailers UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd/</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Venter Trailers UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/acceo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>http://www.acceo.org</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Acceo</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ad-gifts-gb/ad-gifts-gb</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AD Gifts GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/ahmeds-leathers-ltd</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ahmed's Leathers Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/alzheimer-s-society/alzheimer-s-society</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>http://www.alzheimers.org.uk</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Alzheimer's Society</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/golden-curl/golden-curl</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Amory London</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/approved-workshop-scheme-aws/approved-workshop-scheme-aws</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>http://www.approvedworkshops.co.uk</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Approved Workshop Scheme - AWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-flavours-brownie/the-flavours-brownie</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Asian Fusion Street Food from The Flavours Brownie</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/auto-finance-online/auto-finance-online</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Auto Finance Online</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/autoglym</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.autoglym.com/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Autoglym</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/beckford-s-rum</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>www.beckfordsrum.com</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Beckford's Rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/bella-duke/bella-duke</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.bellaandduke.com/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Bella &amp; Duke</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/berghoff-worldwide-uk</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>http://www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BergHOFF Worldwide GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/berghoff-x5-handheld-food-processor</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.lcctvproducts.com/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BergHOFF X5 Handheld Food Processor</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/dogs-trust/dogs-trust</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.bluecross.org.uk/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Blue Cross</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/brit-stops</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>http://www.britstops.com</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Brit Stops</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/brompton-bicyles/brompton-bicyles</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>http://www.brompton.com</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Brompton Bicycle</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/butternut-box/butternut-box</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>http://www.butternutbox.com</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Butternut Box</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.camperlands.co.uk/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Camperlands Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-camping-caravanning-club/the-camping-caravanning-club</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.campingandcaravanningclub.co.uk/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Camping &amp; Caravanning Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-caravan-motorhome-club/the-caravan-motorhome-club</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>http://www.caravanclub.co.uk</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Caravan &amp; Motorhome Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/caravan-finder/caravan-finder</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>http://www.caravanfinder.co.uk</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Caravan Finder</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/caravan-guard-ltd</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.caravanguard.co.uk/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Caravan Guard Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/celtic-spirit-co</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>http://www.celticspirit.co.uk</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Celtic Spirit Co</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cl9ud</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CL9UD Always Trending</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/conservatory-insulations/conservatory-insulations</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>http://www.insulatedsolutions.co.uk</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Conservatory Insulations</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/cris/cris</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.cris.co.uk/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CRiS</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/crumbs-away-ltd</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>http://www.crumbsaway.co.uk</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Crumbs Away Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/steprightorthotics</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Custom Made Insoles</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/davinci-furniture-limited</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.davincifurniture.co.uk/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DaVinci Furniture Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ddipp/ddipp</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>http://www.ddipp.me</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ddipp</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/diamondbrite</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>http://www.diamondbrite.co.uk</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Diamondbrite</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/ds-accessories/ds-accessories</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>http://www.sbphealth.co.uk�</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DS Accessories</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/eden-garden-equipment/eden-garden-equipment</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://www.edengardenequipment.com</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Eden Garden Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/estarli/estarli</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>http://www.estarli.co.uk</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Estarli</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/renapur-/renapur-</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://www.renapur.com</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Eternal Skincare</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/eurotherapy</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>http://www.eurotherapy.co.uk</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Eurotherapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/flapjackery-ltd/flapjackery-ltd</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://www.flapjackery.co.uk</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Flapjackery Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/garden-exteriors-ltd</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://www.gardenlodgeuk.co.uk</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Garden Exteriors Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/ducksoup-cornish-made</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>http://www.dickybag.com</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Go Dicky Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/green-chef/green-chef</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.greenchef.co.uk/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Green Chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/arkay-sales/arkay-sales</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>http://www.arkaysales.com</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Groomit Pet Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/cyba-shield/cyba-shield</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>http://www.arkaysales.com</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Groomit Pet Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/harbour-hounds-ltd/harbour-hounds-ltd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>http://www.harbourhound.com</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Harbour Hounds Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/croci-collective-ltd</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>HelloFresh</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/hot-tubs-living</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>http://www.softubuk.com</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Hot Tubs &amp; Living</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/isuzu-uk-ltd/isuzu-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>http://www.isuzu.co.uk</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Isuzu (UK) Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/jofli-bear</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>http://www.jofli.com</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Jofli Bear</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/kin-toffee-vodka</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>http://www.kinvodka.co.uk</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>KIN Toffee Vodka</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/luggie-scooters/luggie-scooters</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>http://www.luggiescooters.com</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Luggie Scooters</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/macmillan-cancer-support</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>http://www.macmillan.org.uk</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Macmillan Cancer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/magic-knife</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>http://www.magic-knife.co.uk</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Magic Knife</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/magnetic-therapy</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Magnetic Therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/mary-s-cupcakes/mary-s-cupcakes</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>http://www.maryscupcakes.co.uk</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mary's Treat Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/maxburn-fitness-plate</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>http://www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MAXhealth Fitness Board</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mcea-ltd-motorhome-caravan-engineers</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>http://www.mcea.co.uk</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MCEA Ltd Motorhome &amp; Caravan Engineers</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/mckay-pet-supplies</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>http://www.mckaypetsupplies.co.uk</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>McKay Pet Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/merlin-2-1-vacuum</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>http://www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Merlin 2 - 1 Vacuum Cleaner</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mgr-retail-ltd</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MGR Retail Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/mirider</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MiRider</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhome-direct/motorhome-direct</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>http://www.howdeninsurance.co.uk</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Motorhome Direct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/motorhome-matt-podcast/motorhome-matt-podcast</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>http://www.motorhomematt.co.uk</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Motorhome Matt Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/adjustamatic-beds/adjustamatic-beds</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://www.adjustamaticbeds.co.uk</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Niagara Therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/nova-uk/nova-uk</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>http://www.novauk.com</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Nova UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/opus-camper</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>http://www.opuscamper.co.uk</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Opus Camper</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pawdaw-of-london-ltd</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>http://www.pawdawoflondon.com</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Pawdaw of London Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>http://www.pennineoutdoorleisure.co.uk</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Pennine Outdoor Leisure Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/plantlife</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>http://www.plantlife.org.uk</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Plantlife</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/eternal-skincare/eternal-skincare-0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://eternalskincare.com/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Renapur</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/revive</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Revive</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/roodog-ebikes-ltd</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>http://www.roodog.co.uk</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>RooDog Ebikes Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/rose-cottage-drinks/rose-cottage-drinks</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>http://www.rosecottagedrinks.com</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rose Cottage Drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/rspb/rspb</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>http://www.rspb.org.uk</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>RSPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/sbp-health</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>http://www.sbphealth.co.uk�</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SBP Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/scarflace-by-primrose-c/scarflace-by-primrose-c</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Scarflace by Primrose C</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/shawbury-wine</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>http://www.shawbury.wine</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Shawbury Wine</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/skechers-shoes-by-comfort-gear</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Skechers Shoes by Comfort Gear</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/sleepmaster-therapy-ltd</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>http://www.sleepmastertherapyuk.co.uk</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sleepmaster Therapy Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/stretch-seat</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>http://www.arkaysales.com</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Stretch Seat</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/sure-clinic</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>http://www.sure-clinic.co.uk</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sure Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/tails-com/tails-com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://tails.com/gb/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tails.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-great-british-cheese-compnay/the-great-british-cheese-compnay</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>http://www.gbcheese.co.uk</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>The Great British Cheese Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-happy-caravanner/the-happy-caravanner</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>http://www.thehappycaravanner.co.uk</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>The Happy Caravanner</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-insurance-emporium/the-insurance-emporium</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>http://www.theinsuranceemporium.co.uk</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>The Insurance Emporium</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/the-mulberry-silk-duvet</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>http://www.arkaysales.com</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>The Mulberry Silk Duvet</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/the-nomad-s-kitchen-</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>The Nomad's Kitchen</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-orthotic-works/the-orthotic-works</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>http://www.theorthoticworks.co.uk</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>The Orthotic Works</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/the-outdoor-guide-foundation/the-outdoor-guide-foundation</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>http://www.theoutdoorguidefoundation.org</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>The Outdoor Guide Foundation</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/tidal-robes/tidal-robes</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>http://www.tidalrobes.co.uk</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tidal Robes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/stretchy-lids</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>http://www.londonchina.co.uk</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ToastiBox</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/towcheck/towcheck</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>http://www.towcheck.co.uk</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>TowCheck</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/turmeric-blend</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>http://www.naturesquared.co.uk</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Turmeric Blend - Nature Squared</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/valenette</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>http://www.valentte.com</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Valentte</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Venter Trailers UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Venter Trailers UK Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/verisure/verisure</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.verisure.co.uk/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Verisure</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vinchip/vinchip</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.vinchip.co.uk/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>VinChip</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/vinity-wines-ltd/vinity-wines-ltd</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>http://www.vinitywines.co.uk</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Vinity Wines Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/warwickshire-clothing</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>http://www.warwickshireclothing.com</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Warwickshire Clothing</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/white-hawk-products-ltd/white-hawk-products-ltd</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>http://www.whitehawkproducts.com</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>White Hawk Products Ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/wineomania/wineomania</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>http://www.wineomania.co.uk</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Wineomania</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/exhibitor-list/wwf</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>http://www.wwf.org.uk</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>WWF</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://mcshow.co.uk/wyre-forest-books/wyre-forest-books</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Wyre Forest Books</t>
         </is>
       </c>
     </row>
